--- a/Doc/系統文件/SD/TableSchema/OPT_LOG.xlsx
+++ b/Doc/系統文件/SD/TableSchema/OPT_LOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\SGS.LEGAL.DLS\Doc\系統文件\SD\TableSchema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2715147-D1B9-46A0-B2A6-14683E16A6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7D503-19FA-4A9F-94F5-EAAA658F5C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="115" r:id="rId1"/>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>餐數 ACTION</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MSG</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -365,6 +361,10 @@
   </si>
   <si>
     <t>備忘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數 ACTION</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1140,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1296,7 +1296,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>42</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="6" spans="1:17" s="10" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -1325,7 +1325,7 @@
         <v>200</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="40"/>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -1350,10 +1350,10 @@
         <v>41</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="6"/>
@@ -1521,7 +1521,7 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
